--- a/資料/Kitchen_Timer_仕様書v0.23.xlsx
+++ b/資料/Kitchen_Timer_仕様書v0.23.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC4FCA3A-7C18-40B9-94CA-A1712697A1F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45FEF13-938B-4035-9D5C-D9C7A3999AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
-    <workbookView xWindow="324" yWindow="84" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{97BABA5A-0E21-4163-A2A1-4DE603A3D527}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{97BABA5A-0E21-4163-A2A1-4DE603A3D527}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="1" r:id="rId1"/>
     <sheet name="構成図" sheetId="2" r:id="rId2"/>
     <sheet name="画面遷移" sheetId="3" r:id="rId3"/>
     <sheet name="改変記録" sheetId="5" r:id="rId4"/>
-    <sheet name="ピン配置" sheetId="4" r:id="rId5"/>
+    <sheet name="ピン配置" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -451,49 +451,6 @@
     <t>スタートストップボタンを押す</t>
     <rPh sb="12" eb="13">
       <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電源をONにしたら、00m00sが表示される</t>
-    <rPh sb="0" eb="2">
-      <t>デンゲン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分or秒ボタンで任意の時間を設定</t>
-    <rPh sb="0" eb="1">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リセットした時</t>
-    <rPh sb="6" eb="7">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタートストップボタンでカウントダウン開始</t>
-    <rPh sb="19" eb="21">
-      <t>カイシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1323,19 +1280,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分に繰り上がる</t>
-    <rPh sb="0" eb="1">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ア</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PIN17/RA0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1508,64 +1452,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>59秒の時に秒ボタンが押された場合</t>
-    <rPh sb="2" eb="3">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>秒ボタン押下</t>
-    <rPh sb="0" eb="1">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>99分59秒の時に秒ボタンが押された場合</t>
-    <rPh sb="2" eb="3">
-      <t>フン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ビョウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変化なし</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>・カウント時間の秒が59秒より上回る場合、分に繰り上がる *1</t>
     <rPh sb="5" eb="7">
       <t>ジカン</t>
@@ -1591,14 +1477,6 @@
     <rPh sb="25" eb="26">
       <t>ア</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>*2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2050,13 +1928,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2075,30 +1977,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4109,8 +3987,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13922410" y="1827500"/>
-          <a:ext cx="6291372" cy="7644167"/>
+          <a:off x="13794459" y="1837280"/>
+          <a:ext cx="6225359" cy="7686545"/>
           <a:chOff x="440877" y="6038432"/>
           <a:chExt cx="4765696" cy="5913905"/>
         </a:xfrm>
@@ -5406,8 +5284,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm rot="16200000">
-          <a:off x="8332346" y="5320775"/>
-          <a:ext cx="885936" cy="1205964"/>
+          <a:off x="8282720" y="5326858"/>
+          <a:ext cx="881454" cy="1198279"/>
           <a:chOff x="8690722" y="7754949"/>
           <a:chExt cx="918434" cy="1235483"/>
         </a:xfrm>
@@ -5674,350 +5552,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>149546</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33954</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>227091</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>207812</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="矢印: 下 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A230BBC1-53D7-499F-8517-279A801D6876}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="8129283" y="1081676"/>
-          <a:ext cx="433835" cy="705074"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>75</xdr:col>
-      <xdr:colOff>309522</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>116653</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="コネクタ: カギ線 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{391DB262-BC75-445E-8183-DA1546E3F6FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5984410" y="2393070"/>
-          <a:ext cx="1109173" cy="1905"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10796</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>10797</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6D042F-E566-4D10-AB19-2DCDAF4622D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="6539949" y="2959405"/>
-          <a:ext cx="3425687" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301B3CD8-7400-45AE-A1A7-8D062483C0E2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="9352723" y="2335696"/>
-          <a:ext cx="1225827" cy="2"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="57150">
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>158814</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>35947</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>93</xdr:col>
-      <xdr:colOff>236359</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>215520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="矢印: 下 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F795B402-D977-4D52-99C1-DF3B3841EBAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="11501357" y="1110691"/>
-          <a:ext cx="437990" cy="700397"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>122460</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>130031</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>256644</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116716</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="矢印: 下 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCE1D82-BDA2-4874-9C46-2797EE942D81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13202356" y="1852814"/>
-          <a:ext cx="445610" cy="702302"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>295255</xdr:colOff>
       <xdr:row>30</xdr:row>
@@ -7120,7 +6654,7 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>156607</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>81487</xdr:rowOff>
+      <xdr:rowOff>114144</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7186,126 +6720,6 @@
         <a:xfrm rot="16200000">
           <a:off x="4114729" y="3165182"/>
           <a:ext cx="620555" cy="737620"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>162652</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>206830</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="矢印: 下 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0AAD864-0A62-4DD3-8150-BC4EBC119E2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="16072442" y="1746838"/>
-          <a:ext cx="424542" cy="675549"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>162652</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>228599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>206830</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>152398</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="矢印: 下 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6C9485-1695-4F4A-8596-6E9C5A15060E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="16072442" y="1746838"/>
-          <a:ext cx="424542" cy="675549"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -9598,8 +9012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F19A9-3ADB-45C4-BB57-217CF39D9DEB}">
   <dimension ref="A1:AB79"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L59" sqref="L59"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -9643,7 +9057,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -9664,15 +9078,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -9755,7 +9169,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -9785,7 +9199,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
@@ -9800,7 +9214,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
@@ -9810,7 +9224,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.45">
@@ -9825,7 +9239,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
@@ -9835,7 +9249,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="C50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
@@ -9855,7 +9269,7 @@
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B54" s="2"/>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
@@ -9867,19 +9281,19 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S58" s="2"/>
     </row>
@@ -9920,25 +9334,25 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
@@ -9952,13 +9366,13 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" s="2"/>
       <c r="D70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
@@ -9970,13 +9384,13 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" s="2"/>
       <c r="D73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
@@ -9990,28 +9404,28 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -10033,8 +9447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC2ED8A-E6AC-4214-970A-3292B5B327A3}">
   <dimension ref="A1:AJ17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA37" sqref="AA37"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF23" sqref="AF23"/>
     </sheetView>
     <sheetView workbookViewId="1"/>
   </sheetViews>
@@ -10047,41 +9461,41 @@
   <sheetData>
     <row r="1" spans="1:36" ht="45.6" x14ac:dyDescent="0.45">
       <c r="A1" s="21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="39" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="AF6" s="41" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="AF6" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
     </row>
     <row r="7" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E7" s="50" t="s">
+      <c r="E7" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="I7" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="I7" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" s="50"/>
+      <c r="J7" s="47"/>
       <c r="AF7" s="40"/>
       <c r="AG7" s="40"/>
       <c r="AH7" s="40"/>
@@ -10089,89 +9503,89 @@
       <c r="AJ7" s="40"/>
     </row>
     <row r="8" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E8" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="54"/>
+      <c r="E8" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="I9" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" s="50"/>
-      <c r="AE9" s="55" t="s">
-        <v>105</v>
+      <c r="D9" s="44"/>
+      <c r="I9" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="AE9" s="41" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="AE10" s="55" t="s">
-        <v>113</v>
+      <c r="AE10" s="41" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="E11" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="I11" s="53" t="s">
+      <c r="E11" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="I11" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="45"/>
+      <c r="AE11" s="41" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="E12" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" s="46"/>
+      <c r="AE12" s="41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="C13" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="47"/>
+      <c r="AE13" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
+      <c r="I14" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="J11" s="53"/>
-      <c r="AE11" s="55" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="E12" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F12" s="54"/>
-      <c r="AE12" s="55" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="C13" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="41"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="AE13" s="55" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="I14" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="J14" s="52"/>
+      <c r="J14" s="51"/>
     </row>
     <row r="15" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E15" s="50" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="I15" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="J15" s="54"/>
+      <c r="E15" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="I15" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E16" s="54" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="54"/>
+      <c r="E16" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="44"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -10182,6 +9596,11 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
     <mergeCell ref="AF6:AJ6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I11:J11"/>
@@ -10195,11 +9614,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10210,74 +9624,56 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0E333-9386-4B56-8322-B1787B4368DB}">
-  <dimension ref="A1:CX40"/>
+  <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AQ12" sqref="AQ12:BI20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
     <sheetView topLeftCell="A5" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="107" width="4.09765625" customWidth="1"/>
+    <col min="1" max="56" width="4.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="2" spans="1:102" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:102" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="4" spans="1:102" ht="17.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="1:30" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:30" hidden="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="1:30" ht="17.399999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
       <c r="F4" s="20"/>
     </row>
-    <row r="5" spans="1:102" ht="39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:30" ht="39" x14ac:dyDescent="0.45">
       <c r="A5" s="19" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F5" s="20"/>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="U6" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.45">
       <c r="Q10" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.45">
-      <c r="E11" s="56" t="s">
-        <v>163</v>
-      </c>
-      <c r="M11" s="57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:102" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="E11" s="42" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="43" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="Q12" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AR12" t="s">
-        <v>169</v>
-      </c>
-      <c r="BB12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BU12" t="s">
-        <v>48</v>
-      </c>
-      <c r="CF12" t="s">
-        <v>49</v>
-      </c>
-      <c r="CQ12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:102" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
@@ -10287,50 +9683,10 @@
       <c r="V13" s="14"/>
       <c r="W13" s="15"/>
       <c r="X13" s="14"/>
-      <c r="AQ13" s="13"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="14"/>
-      <c r="AW13" s="15"/>
-      <c r="AX13" s="14"/>
-      <c r="BB13" s="13"/>
-      <c r="BC13" s="14"/>
-      <c r="BD13" s="15"/>
-      <c r="BE13" s="14"/>
-      <c r="BF13" s="15"/>
-      <c r="BG13" s="14"/>
-      <c r="BH13" s="15"/>
-      <c r="BI13" s="14"/>
-      <c r="BU13" s="13"/>
-      <c r="BV13" s="14"/>
-      <c r="BW13" s="15"/>
-      <c r="BX13" s="14"/>
-      <c r="BY13" s="15"/>
-      <c r="BZ13" s="14"/>
-      <c r="CA13" s="15"/>
-      <c r="CB13" s="14"/>
-      <c r="CF13" s="13"/>
-      <c r="CG13" s="14"/>
-      <c r="CH13" s="15"/>
-      <c r="CI13" s="14"/>
-      <c r="CJ13" s="15"/>
-      <c r="CK13" s="14"/>
-      <c r="CL13" s="15"/>
-      <c r="CM13" s="14"/>
-      <c r="CQ13" s="13"/>
-      <c r="CR13" s="14"/>
-      <c r="CS13" s="15"/>
-      <c r="CT13" s="14"/>
-      <c r="CU13" s="15"/>
-      <c r="CV13" s="14"/>
-      <c r="CW13" s="15"/>
-      <c r="CX13" s="14"/>
-    </row>
-    <row r="14" spans="1:102" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="14" spans="1:30" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="17">
@@ -10352,156 +9708,26 @@
         <v>13</v>
       </c>
       <c r="X14" s="17"/>
-      <c r="AQ14" s="16"/>
-      <c r="AR14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AS14" s="18">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU14" s="18">
-        <v>5</v>
-      </c>
-      <c r="AV14" s="17">
-        <v>9</v>
-      </c>
-      <c r="AW14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX14" s="17"/>
-      <c r="BB14" s="16"/>
-      <c r="BC14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="18">
-        <v>1</v>
-      </c>
-      <c r="BE14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF14" s="18">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BH14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI14" s="17"/>
-      <c r="BU14" s="16"/>
-      <c r="BV14" s="17">
-        <v>0</v>
-      </c>
-      <c r="BW14" s="18">
-        <v>0</v>
-      </c>
-      <c r="BX14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="BY14" s="18">
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="17">
-        <v>0</v>
-      </c>
-      <c r="CA14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CB14" s="17"/>
-      <c r="CF14" s="16"/>
-      <c r="CG14" s="17">
-        <v>1</v>
-      </c>
-      <c r="CH14" s="18">
-        <v>2</v>
-      </c>
-      <c r="CI14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="CJ14" s="18">
-        <v>3</v>
-      </c>
-      <c r="CK14" s="17">
-        <v>4</v>
-      </c>
-      <c r="CL14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CM14" s="17"/>
-      <c r="CQ14" s="16"/>
-      <c r="CR14" s="17">
-        <v>1</v>
-      </c>
-      <c r="CS14" s="18">
-        <v>2</v>
-      </c>
-      <c r="CT14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="CU14" s="18">
-        <v>3</v>
-      </c>
-      <c r="CV14" s="17">
-        <v>3</v>
-      </c>
-      <c r="CW14" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="CX14" s="17"/>
-    </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.45">
-      <c r="AY15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.45">
       <c r="W16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="2:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.45">
       <c r="AD17" t="s">
-        <v>91</v>
-      </c>
-      <c r="AQ17" t="s">
-        <v>175</v>
-      </c>
-      <c r="AR17" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AD18" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ18" s="13"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="14"/>
-      <c r="AW18" s="15"/>
-      <c r="AX18" s="14"/>
-      <c r="BB18" s="13"/>
-      <c r="BC18" s="14"/>
-      <c r="BD18" s="15"/>
-      <c r="BE18" s="14"/>
-      <c r="BF18" s="15"/>
-      <c r="BG18" s="14"/>
-      <c r="BH18" s="15"/>
-      <c r="BI18" s="14"/>
-    </row>
-    <row r="19" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="Q19" s="13"/>
       <c r="R19" s="14"/>
       <c r="S19" s="15"/>
@@ -10511,53 +9737,10 @@
       <c r="W19" s="15"/>
       <c r="X19" s="14"/>
       <c r="AD19" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ19" s="16"/>
-      <c r="AR19" s="17">
-        <v>9</v>
-      </c>
-      <c r="AS19" s="18">
-        <v>9</v>
-      </c>
-      <c r="AT19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU19" s="18">
-        <v>5</v>
-      </c>
-      <c r="AV19" s="17">
-        <v>9</v>
-      </c>
-      <c r="AW19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="AX19" s="17"/>
-      <c r="BB19" s="16"/>
-      <c r="BC19" s="17">
-        <v>9</v>
-      </c>
-      <c r="BD19" s="18">
-        <v>9</v>
-      </c>
-      <c r="BE19" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="BF19" s="18">
-        <v>5</v>
-      </c>
-      <c r="BG19" s="17">
-        <v>9</v>
-      </c>
-      <c r="BH19" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="BI19" s="17"/>
-      <c r="BZ19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="F20" t="s">
         <v>4</v>
       </c>
@@ -10585,61 +9768,58 @@
       </c>
       <c r="X20" s="17"/>
       <c r="AD20" t="s">
-        <v>168</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="21" spans="2:78" x14ac:dyDescent="0.45">
-      <c r="M21" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="2:78" x14ac:dyDescent="0.45">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.45">
+      <c r="M21" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="48"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.45">
       <c r="G22" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="W22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:78" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:39" x14ac:dyDescent="0.45">
       <c r="W23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="2:78" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.45">
       <c r="W24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="25" spans="2:78" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.45">
       <c r="B25" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF25" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q25" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF25" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:78" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AF27" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="15"/>
@@ -10649,10 +9829,10 @@
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="L28" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="Q28" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AF28" s="13"/>
       <c r="AG28" s="14"/>
@@ -10663,7 +9843,7 @@
       <c r="AL28" s="15"/>
       <c r="AM28" s="14"/>
     </row>
-    <row r="29" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="16"/>
       <c r="C29" s="17">
         <v>0</v>
@@ -10713,9 +9893,9 @@
       </c>
       <c r="AM29" s="17"/>
     </row>
-    <row r="30" spans="2:78" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="L30" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="17">
@@ -10738,50 +9918,50 @@
       </c>
       <c r="X30" s="17"/>
     </row>
-    <row r="31" spans="2:78" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:39" x14ac:dyDescent="0.45">
       <c r="L31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z31" s="43" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="43"/>
-      <c r="AC31" s="43"/>
-      <c r="AD31" s="43"/>
-    </row>
-    <row r="32" spans="2:78" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+      <c r="Z31" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z32" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="43"/>
-      <c r="AC32" s="43"/>
-      <c r="AD32" s="43"/>
+        <v>83</v>
+      </c>
+      <c r="Z32" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
       <c r="AL32" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="W33" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Q35" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="AF35" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -10794,7 +9974,7 @@
       <c r="H36" s="15"/>
       <c r="I36" s="14"/>
       <c r="L36" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
@@ -10835,7 +10015,7 @@
       </c>
       <c r="I37" s="17"/>
       <c r="L37" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="17">
@@ -10887,7 +10067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E28B7ED-3B4A-421D-ABDD-92E214B58BD1}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1"/>
@@ -10900,12 +10080,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -10913,10 +10093,10 @@
         <v>43997</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -10924,10 +10104,10 @@
         <v>43997</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -10935,10 +10115,10 @@
         <v>43998</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -10969,7 +10149,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="39" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M1" s="27"/>
     </row>
@@ -10977,46 +10157,46 @@
       <c r="A2" s="19"/>
       <c r="M2" s="27"/>
       <c r="P2" s="39" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19"/>
       <c r="M3" s="27"/>
       <c r="Q3" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD3" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG3" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH3" s="48"/>
+      <c r="AK3" s="39" t="s">
         <v>129</v>
-      </c>
-      <c r="AD3" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="AG3" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH3" s="43"/>
-      <c r="AK3" s="39" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="19"/>
       <c r="M4" s="32"/>
       <c r="R4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AD4" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG4" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH4" s="43"/>
+        <v>105</v>
+      </c>
+      <c r="AG4" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH4" s="48"/>
       <c r="AK4" s="39" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K5" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L5" s="33">
         <v>1</v>
@@ -11026,10 +10206,10 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
@@ -11038,98 +10218,98 @@
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K6" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L6" s="34">
         <v>2</v>
       </c>
-      <c r="M6" s="48" t="s">
-        <v>111</v>
+      <c r="M6" s="56" t="s">
+        <v>107</v>
       </c>
       <c r="N6" s="37">
         <v>17</v>
       </c>
       <c r="O6" t="s">
+        <v>105</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="W6" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="W6" s="26" t="s">
-        <v>113</v>
-      </c>
       <c r="X6" s="27"/>
-      <c r="Y6" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="47"/>
+      <c r="Y6" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z6" s="54"/>
+      <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K7" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L7" s="34">
         <v>3</v>
       </c>
-      <c r="M7" s="48"/>
+      <c r="M7" s="56"/>
       <c r="N7" s="37">
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="W7" s="26" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="X7" s="27"/>
-      <c r="Y7" s="46"/>
-      <c r="Z7" s="46"/>
-      <c r="AA7" s="47"/>
+      <c r="Y7" s="54"/>
+      <c r="Z7" s="54"/>
+      <c r="AA7" s="55"/>
     </row>
     <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L8" s="34">
         <v>4</v>
       </c>
-      <c r="M8" s="48"/>
+      <c r="M8" s="56"/>
       <c r="N8" s="37">
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X8" s="27"/>
-      <c r="Y8" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="Z8" s="44"/>
-      <c r="AA8" s="45"/>
+      <c r="Y8" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K9" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L9" s="34">
         <v>5</v>
       </c>
-      <c r="M9" s="48"/>
+      <c r="M9" s="56"/>
       <c r="N9" s="37">
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="X9" s="29"/>
       <c r="Y9" s="29"/>
@@ -11138,83 +10318,83 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="E10" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L10" s="34">
         <v>6</v>
       </c>
-      <c r="M10" s="48"/>
+      <c r="M10" s="56"/>
       <c r="N10" s="37">
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="K11" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L11" s="34">
         <v>7</v>
       </c>
-      <c r="M11" s="48"/>
+      <c r="M11" s="56"/>
       <c r="N11" s="37">
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="K12" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="L12" s="34">
         <v>8</v>
       </c>
-      <c r="M12" s="48"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="37">
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="L13" s="35">
         <v>9</v>
       </c>
-      <c r="M13" s="49"/>
+      <c r="M13" s="57"/>
       <c r="N13" s="38">
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B17" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="B17" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="G19" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H19" s="43"/>
+      <c r="G19" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" s="48"/>
       <c r="V19" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -11225,13 +10405,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="7">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AG4:AH4"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="Y6:AA7"/>
     <mergeCell ref="M6:M13"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AG4:AH4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/資料/Kitchen_Timer_仕様書v0.23.xlsx
+++ b/資料/Kitchen_Timer_仕様書v0.23.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45FEF13-938B-4035-9D5C-D9C7A3999AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA9F345-816C-4EB4-9843-61D71D8B8D19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{97BABA5A-0E21-4163-A2A1-4DE603A3D527}"/>
+    <workbookView xWindow="2688" yWindow="600" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{75F12DC7-B026-4491-BBFB-B3B7FB378D59}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="11520" windowHeight="12360" activeTab="3" xr2:uid="{97BABA5A-0E21-4163-A2A1-4DE603A3D527}"/>
   </bookViews>
   <sheets>
     <sheet name="仕様" sheetId="1" r:id="rId1"/>
     <sheet name="構成図" sheetId="2" r:id="rId2"/>
     <sheet name="画面遷移" sheetId="3" r:id="rId3"/>
-    <sheet name="改変記録" sheetId="5" r:id="rId4"/>
+    <sheet name="変更履歴" sheetId="5" r:id="rId4"/>
     <sheet name="ピン配置" sheetId="4" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="168">
   <si>
     <t>カウントダウンのスタート・ストップ</t>
     <phoneticPr fontId="1"/>
@@ -596,16 +596,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>タカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>改定記録</t>
-    <rPh sb="0" eb="2">
-      <t>カイテイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キロク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1501,6 +1491,39 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更履歴</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v0.24</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改変記録シートの名前を変更履歴に変更</t>
+    <rPh sb="0" eb="4">
+      <t>カイヘンキロク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1939,18 +1962,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1959,6 +1970,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9057,7 +9080,7 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.45">
@@ -9078,15 +9101,15 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B19" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B20" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>44</v>
@@ -9169,7 +9192,7 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.45">
@@ -9199,7 +9222,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.45">
@@ -9214,7 +9237,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.45">
       <c r="D42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.45">
@@ -9239,7 +9262,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.45">
       <c r="C48" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
@@ -9281,19 +9304,19 @@
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B56" s="2"/>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B57" s="2"/>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B58" s="2"/>
       <c r="C58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="S58" s="2"/>
     </row>
@@ -9334,25 +9357,25 @@
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B64" s="2"/>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B65" s="2"/>
       <c r="C65" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B66" s="2"/>
       <c r="C66" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B67" s="2"/>
       <c r="C67" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.45">
@@ -9366,13 +9389,13 @@
     <row r="69" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B69" s="2"/>
       <c r="C69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B70" s="2"/>
       <c r="D70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.45">
@@ -9384,13 +9407,13 @@
     <row r="72" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B72" s="2"/>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B73" s="2"/>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.45">
@@ -9404,28 +9427,28 @@
     <row r="75" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B75" s="9"/>
       <c r="C75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B76" s="9"/>
       <c r="C76" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D77" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.45">
       <c r="D78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.45">
       <c r="C79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -9466,21 +9489,21 @@
     </row>
     <row r="2" spans="1:36" ht="39" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q2" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
       <c r="AF6" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG6" s="44"/>
       <c r="AH6" s="44"/>
@@ -9488,14 +9511,14 @@
       <c r="AJ6" s="44"/>
     </row>
     <row r="7" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E7" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F7" s="47"/>
-      <c r="I7" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="J7" s="47"/>
+      <c r="E7" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="48"/>
+      <c r="I7" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" s="48"/>
       <c r="AF7" s="40"/>
       <c r="AG7" s="40"/>
       <c r="AH7" s="40"/>
@@ -9503,49 +9526,49 @@
       <c r="AJ7" s="40"/>
     </row>
     <row r="8" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E8" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="46"/>
+      <c r="E8" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="50"/>
     </row>
     <row r="9" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
       <c r="C9" s="44" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="44"/>
-      <c r="I9" s="47" t="s">
-        <v>147</v>
-      </c>
-      <c r="J9" s="47"/>
+      <c r="I9" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J9" s="48"/>
       <c r="AE9" s="41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
       <c r="AE10" s="41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="E11" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="F11" s="48"/>
+      <c r="I11" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="AE11" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="E11" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="F11" s="47"/>
-      <c r="I11" s="45" t="s">
+    <row r="12" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
+      <c r="E12" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="AE11" s="41" t="s">
+      <c r="F12" s="50"/>
+      <c r="AE12" s="41" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
-      <c r="E12" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F12" s="46"/>
-      <c r="AE12" s="41" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="26.4" x14ac:dyDescent="0.45">
@@ -9553,36 +9576,36 @@
         <v>3</v>
       </c>
       <c r="D13" s="44"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
       <c r="AE13" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="I14" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="J14" s="51"/>
+      <c r="I14" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E15" s="47" t="s">
-        <v>145</v>
-      </c>
-      <c r="F15" s="47"/>
-      <c r="I15" s="46" t="s">
+      <c r="E15" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="J15" s="46"/>
+      <c r="F15" s="48"/>
+      <c r="I15" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" s="50"/>
     </row>
     <row r="16" spans="1:36" ht="22.2" x14ac:dyDescent="0.45">
-      <c r="E16" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="F16" s="46"/>
+      <c r="E16" s="50" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="50"/>
     </row>
     <row r="17" spans="3:4" ht="51" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="44"/>
@@ -9596,11 +9619,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
     <mergeCell ref="AF6:AJ6"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I11:J11"/>
@@ -9614,6 +9632,11 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I6:J6"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9626,7 +9649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0E333-9386-4B56-8322-B1787B4368DB}">
   <dimension ref="A1:AM40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AV13" sqref="AV13"/>
     </sheetView>
     <sheetView topLeftCell="A5" workbookViewId="1"/>
@@ -9660,10 +9683,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.45">
       <c r="E11" s="42" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:30" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -9673,7 +9696,7 @@
     </row>
     <row r="13" spans="1:30" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
@@ -9686,7 +9709,7 @@
     </row>
     <row r="14" spans="1:30" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="17">
@@ -9714,17 +9737,17 @@
         <v>62</v>
       </c>
       <c r="AD16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:39" x14ac:dyDescent="0.45">
       <c r="AD17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="AD18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -9737,7 +9760,7 @@
       <c r="W19" s="15"/>
       <c r="X19" s="14"/>
       <c r="AD19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -9768,20 +9791,20 @@
       </c>
       <c r="X20" s="17"/>
       <c r="AD20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="2:39" x14ac:dyDescent="0.45">
-      <c r="M21" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
+      <c r="M21" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
     </row>
     <row r="22" spans="2:39" x14ac:dyDescent="0.45">
       <c r="G22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="W22" t="s">
         <v>47</v>
@@ -9789,12 +9812,12 @@
     </row>
     <row r="23" spans="2:39" x14ac:dyDescent="0.45">
       <c r="W23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="2:39" x14ac:dyDescent="0.45">
       <c r="W24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="2:39" x14ac:dyDescent="0.45">
@@ -9816,7 +9839,7 @@
         <v>58</v>
       </c>
       <c r="AF27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -9829,7 +9852,7 @@
       <c r="H28" s="15"/>
       <c r="I28" s="14"/>
       <c r="L28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q28" t="s">
         <v>59</v>
@@ -9922,46 +9945,46 @@
       <c r="L31" t="s">
         <v>51</v>
       </c>
-      <c r="Z31" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
+      <c r="Z31" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="51"/>
+      <c r="AC31" s="51"/>
+      <c r="AD31" s="51"/>
     </row>
     <row r="32" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H32" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z32" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA32" s="48"/>
-      <c r="AB32" s="48"/>
-      <c r="AC32" s="48"/>
-      <c r="AD32" s="48"/>
+        <v>82</v>
+      </c>
+      <c r="Z32" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
       <c r="AL32" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" spans="2:39" x14ac:dyDescent="0.45">
       <c r="H33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:39" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q35" t="s">
         <v>48</v>
       </c>
       <c r="AF35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:39" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.5">
@@ -10065,10 +10088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E28B7ED-3B4A-421D-ABDD-92E214B58BD1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
     <sheetView tabSelected="1" workbookViewId="1"/>
   </sheetViews>
@@ -10080,12 +10103,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -10093,10 +10116,10 @@
         <v>43997</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -10104,10 +10127,10 @@
         <v>43997</v>
       </c>
       <c r="C4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -10115,10 +10138,21 @@
         <v>43998</v>
       </c>
       <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="s">
         <v>152</v>
       </c>
-      <c r="D5" t="s">
-        <v>153</v>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="22">
+        <v>43999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -10149,7 +10183,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="39" x14ac:dyDescent="0.45">
       <c r="A1" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M1" s="27"/>
     </row>
@@ -10157,46 +10191,46 @@
       <c r="A2" s="19"/>
       <c r="M2" s="27"/>
       <c r="P2" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="19"/>
       <c r="M3" s="27"/>
       <c r="Q3" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD3" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="39" t="s">
+      <c r="AG3" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="AG3" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH3" s="48"/>
+      <c r="AH3" s="51"/>
       <c r="AK3" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="19"/>
       <c r="M4" s="32"/>
       <c r="R4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD4" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="AG4" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="AG4" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH4" s="48"/>
+      <c r="AH4" s="51"/>
       <c r="AK4" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5" s="33">
         <v>1</v>
@@ -10206,10 +10240,10 @@
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="W5" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X5" s="24"/>
       <c r="Y5" s="24"/>
@@ -10218,36 +10252,36 @@
     </row>
     <row r="6" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6" s="34">
         <v>2</v>
       </c>
       <c r="M6" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N6" s="37">
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W6" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="X6" s="27"/>
       <c r="Y6" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Z6" s="54"/>
       <c r="AA6" s="55"/>
     </row>
     <row r="7" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7" s="34">
         <v>3</v>
@@ -10257,10 +10291,10 @@
         <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="W7" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X7" s="27"/>
       <c r="Y7" s="54"/>
@@ -10269,10 +10303,10 @@
     </row>
     <row r="8" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="E8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" s="34">
         <v>4</v>
@@ -10282,21 +10316,21 @@
         <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="W8" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X8" s="27"/>
       <c r="Y8" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z8" s="52"/>
       <c r="AA8" s="53"/>
     </row>
     <row r="9" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K9" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L9" s="34">
         <v>5</v>
@@ -10306,10 +10340,10 @@
         <v>14</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="W9" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X9" s="29"/>
       <c r="Y9" s="29"/>
@@ -10318,10 +10352,10 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="E10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L10" s="34">
         <v>6</v>
@@ -10331,12 +10365,12 @@
         <v>13</v>
       </c>
       <c r="O10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="K11" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="34">
         <v>7</v>
@@ -10346,12 +10380,12 @@
         <v>12</v>
       </c>
       <c r="O11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="K12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L12" s="34">
         <v>8</v>
@@ -10361,13 +10395,13 @@
         <v>11</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E13" s="2"/>
       <c r="K13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" s="35">
         <v>9</v>
@@ -10377,24 +10411,24 @@
         <v>10</v>
       </c>
       <c r="O13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="B17" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="B17" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.45">
-      <c r="G19" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="H19" s="48"/>
+      <c r="G19" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="51"/>
       <c r="V19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
